--- a/data/trans_dic/P70D_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.07937382207884869</v>
+        <v>0.07937382207884867</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1603586895164158</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04390732135893841</v>
+        <v>0.04607945529949534</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09844404889185719</v>
+        <v>0.0994406695380161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07530222531733161</v>
+        <v>0.07273606813427494</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1348953929674777</v>
+        <v>0.1348108155061828</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2420406838948901</v>
+        <v>0.2451139905178668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1481786673877401</v>
+        <v>0.1500291138523643</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03921145241057734</v>
+        <v>0.03921145241057735</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05547234579869497</v>
+        <v>0.05547234579869498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04612828894461231</v>
+        <v>0.0461282889446123</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02993870101836779</v>
+        <v>0.02920034137773501</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04237785302313928</v>
+        <v>0.04271408458829995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03830155913789446</v>
+        <v>0.03738098283550949</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0506426974887964</v>
+        <v>0.05092508482635873</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06965594567332024</v>
+        <v>0.06982974094617449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05532635748923525</v>
+        <v>0.055110615457899</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.03879867358695569</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04590313504293555</v>
+        <v>0.04590313504293554</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04233294871086531</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02064204197357023</v>
+        <v>0.02088914018026122</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03055985618378313</v>
+        <v>0.03216804782335062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03074899534557821</v>
+        <v>0.0298349623900009</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06570938345209798</v>
+        <v>0.06581124742561743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06316887788716971</v>
+        <v>0.06762780203226085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05971275447355576</v>
+        <v>0.05908579870257497</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03380525417958815</v>
+        <v>0.03394478871415911</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04809850970967151</v>
+        <v>0.04841018883935012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04288844972063288</v>
+        <v>0.04264429118184985</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05334288827591865</v>
+        <v>0.05324106378903737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07093681427854703</v>
+        <v>0.06966047061904371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05765158944951639</v>
+        <v>0.05689440645687017</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7009</v>
+        <v>7356</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8179</v>
+        <v>8262</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18277</v>
+        <v>17654</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21534</v>
+        <v>21520</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20109</v>
+        <v>20365</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35965</v>
+        <v>36415</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37792</v>
+        <v>36860</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39599</v>
+        <v>39913</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84139</v>
+        <v>82117</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63928</v>
+        <v>64284</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65088</v>
+        <v>65250</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>121538</v>
+        <v>121064</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9959</v>
+        <v>10078</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14595</v>
+        <v>15363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29520</v>
+        <v>28642</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31701</v>
+        <v>31750</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30169</v>
+        <v>32298</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57326</v>
+        <v>56724</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>64379</v>
+        <v>64644</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71912</v>
+        <v>72378</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>145799</v>
+        <v>144969</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101586</v>
+        <v>101392</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106057</v>
+        <v>104149</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>195986</v>
+        <v>193412</v>
       </c>
     </row>
     <row r="20">
